--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.2253043174239</v>
+        <v>51.831386</v>
       </c>
       <c r="H2">
-        <v>33.2253043174239</v>
+        <v>155.494158</v>
       </c>
       <c r="I2">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="J2">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>40.7597924634021</v>
+        <v>0.169425</v>
       </c>
       <c r="N2">
-        <v>40.7597924634021</v>
+        <v>0.508275</v>
       </c>
       <c r="O2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q2">
-        <v>1354.256508511576</v>
+        <v>8.781532573050001</v>
       </c>
       <c r="R2">
-        <v>1354.256508511576</v>
+        <v>79.03379315745001</v>
       </c>
       <c r="S2">
-        <v>0.006204861732583743</v>
+        <v>3.365049633590364E-05</v>
       </c>
       <c r="T2">
-        <v>0.006204861732583743</v>
+        <v>3.365049633590364E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.2253043174239</v>
+        <v>51.831386</v>
       </c>
       <c r="H3">
-        <v>33.2253043174239</v>
+        <v>155.494158</v>
       </c>
       <c r="I3">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="J3">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2211258261467</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N3">
-        <v>31.2211258261467</v>
+        <v>207.216113</v>
       </c>
       <c r="O3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q3">
-        <v>1037.331406706307</v>
+        <v>3580.099446107539</v>
       </c>
       <c r="R3">
-        <v>1037.331406706307</v>
+        <v>32220.89501496785</v>
       </c>
       <c r="S3">
-        <v>0.004752790855370077</v>
+        <v>0.01371880389798179</v>
       </c>
       <c r="T3">
-        <v>0.004752790855370077</v>
+        <v>0.01371880389798179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.2253043174239</v>
+        <v>51.831386</v>
       </c>
       <c r="H4">
-        <v>33.2253043174239</v>
+        <v>155.494158</v>
       </c>
       <c r="I4">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="J4">
-        <v>0.04527048451706894</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>225.401301195466</v>
+        <v>31.266034</v>
       </c>
       <c r="N4">
-        <v>225.401301195466</v>
+        <v>93.798102</v>
       </c>
       <c r="O4">
-        <v>0.7579515062662449</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P4">
-        <v>0.7579515062662449</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q4">
-        <v>7489.026825762681</v>
+        <v>1620.561876943124</v>
       </c>
       <c r="R4">
-        <v>7489.026825762681</v>
+        <v>14585.05689248812</v>
       </c>
       <c r="S4">
-        <v>0.03431283192911511</v>
+        <v>0.006209931017000079</v>
       </c>
       <c r="T4">
-        <v>0.03431283192911511</v>
+        <v>0.00620993101700008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>225.011407088972</v>
+        <v>51.831386</v>
       </c>
       <c r="H5">
-        <v>225.011407088972</v>
+        <v>155.494158</v>
       </c>
       <c r="I5">
-        <v>0.3065848644595649</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="J5">
-        <v>0.3065848644595649</v>
+        <v>0.06647612792467963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7597924634021</v>
+        <v>234.189438</v>
       </c>
       <c r="N5">
-        <v>40.7597924634021</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O5">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P5">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q5">
-        <v>9171.418254844582</v>
+        <v>12138.36315810107</v>
       </c>
       <c r="R5">
-        <v>9171.418254844582</v>
+        <v>109245.2684229096</v>
       </c>
       <c r="S5">
-        <v>0.04202112510099758</v>
+        <v>0.04651374251336186</v>
       </c>
       <c r="T5">
-        <v>0.04202112510099758</v>
+        <v>0.04651374251336186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.011407088972</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H6">
-        <v>225.011407088972</v>
+        <v>676.57492</v>
       </c>
       <c r="I6">
-        <v>0.3065848644595649</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="J6">
-        <v>0.3065848644595649</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>31.2211258261467</v>
+        <v>0.169425</v>
       </c>
       <c r="N6">
-        <v>31.2211258261467</v>
+        <v>0.508275</v>
       </c>
       <c r="O6">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P6">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q6">
-        <v>7025.109453043112</v>
+        <v>38.20956860700001</v>
       </c>
       <c r="R6">
-        <v>7025.109453043112</v>
+        <v>343.886117463</v>
       </c>
       <c r="S6">
-        <v>0.03218727954300758</v>
+        <v>0.0001464176028171058</v>
       </c>
       <c r="T6">
-        <v>0.03218727954300758</v>
+        <v>0.0001464176028171058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.011407088972</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H7">
-        <v>225.011407088972</v>
+        <v>676.57492</v>
       </c>
       <c r="I7">
-        <v>0.3065848644595649</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="J7">
-        <v>0.3065848644595649</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>225.401301195466</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N7">
-        <v>225.401301195466</v>
+        <v>207.216113</v>
       </c>
       <c r="O7">
-        <v>0.7579515062662449</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P7">
-        <v>0.7579515062662449</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q7">
-        <v>50717.86394167699</v>
+        <v>15577.46945285399</v>
       </c>
       <c r="R7">
-        <v>50717.86394167699</v>
+        <v>140197.2250756859</v>
       </c>
       <c r="S7">
-        <v>0.2323764598155597</v>
+        <v>0.0596922660578201</v>
       </c>
       <c r="T7">
-        <v>0.2323764598155597</v>
+        <v>0.0596922660578201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.871190387642</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H8">
-        <v>123.871190387642</v>
+        <v>676.57492</v>
       </c>
       <c r="I8">
-        <v>0.1687782526528695</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="J8">
-        <v>0.1687782526528695</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.7597924634021</v>
+        <v>31.266034</v>
       </c>
       <c r="N8">
-        <v>40.7597924634021</v>
+        <v>93.798102</v>
       </c>
       <c r="O8">
-        <v>0.137061968714831</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P8">
-        <v>0.137061968714831</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q8">
-        <v>5048.964012394857</v>
+        <v>7051.271484089094</v>
       </c>
       <c r="R8">
-        <v>5048.964012394857</v>
+        <v>63461.44335680184</v>
       </c>
       <c r="S8">
-        <v>0.02313307958485144</v>
+        <v>0.0270202021418216</v>
       </c>
       <c r="T8">
-        <v>0.02313307958485144</v>
+        <v>0.02702020214182161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.871190387642</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H9">
-        <v>123.871190387642</v>
+        <v>676.57492</v>
       </c>
       <c r="I9">
-        <v>0.1687782526528695</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="J9">
-        <v>0.1687782526528695</v>
+        <v>0.2892461138800461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.2211258261467</v>
+        <v>234.189438</v>
       </c>
       <c r="N9">
-        <v>31.2211258261467</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O9">
-        <v>0.1049865250189242</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P9">
-        <v>0.1049865250189242</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q9">
-        <v>3867.398021327145</v>
+        <v>52815.56675989833</v>
       </c>
       <c r="R9">
-        <v>3867.398021327145</v>
+        <v>475340.1008390849</v>
       </c>
       <c r="S9">
-        <v>0.01771944224479078</v>
+        <v>0.2023872280775873</v>
       </c>
       <c r="T9">
-        <v>0.01771944224479078</v>
+        <v>0.2023872280775873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.871190387642</v>
+        <v>133.547002</v>
       </c>
       <c r="H10">
-        <v>123.871190387642</v>
+        <v>400.6410059999999</v>
       </c>
       <c r="I10">
-        <v>0.1687782526528695</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="J10">
-        <v>0.1687782526528695</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>225.401301195466</v>
+        <v>0.169425</v>
       </c>
       <c r="N10">
-        <v>225.401301195466</v>
+        <v>0.508275</v>
       </c>
       <c r="O10">
-        <v>0.7579515062662449</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P10">
-        <v>0.7579515062662449</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q10">
-        <v>27920.72749400581</v>
+        <v>22.62620081385</v>
       </c>
       <c r="R10">
-        <v>27920.72749400581</v>
+        <v>203.63580732465</v>
       </c>
       <c r="S10">
-        <v>0.1279257308232273</v>
+        <v>8.670273454527948E-05</v>
       </c>
       <c r="T10">
-        <v>0.1279257308232273</v>
+        <v>8.670273454527948E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.266669876833</v>
+        <v>133.547002</v>
       </c>
       <c r="H11">
-        <v>159.266669876833</v>
+        <v>400.6410059999999</v>
       </c>
       <c r="I11">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="J11">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.7597924634021</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N11">
-        <v>40.7597924634021</v>
+        <v>207.216113</v>
       </c>
       <c r="O11">
-        <v>0.137061968714831</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P11">
-        <v>0.137061968714831</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q11">
-        <v>6491.676410516888</v>
+        <v>9224.363552414407</v>
       </c>
       <c r="R11">
-        <v>6491.676410516888</v>
+        <v>83019.27197172966</v>
       </c>
       <c r="S11">
-        <v>0.02974322389205525</v>
+        <v>0.03534740768077051</v>
       </c>
       <c r="T11">
-        <v>0.02974322389205525</v>
+        <v>0.03534740768077051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.266669876833</v>
+        <v>133.547002</v>
       </c>
       <c r="H12">
-        <v>159.266669876833</v>
+        <v>400.6410059999999</v>
       </c>
       <c r="I12">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="J12">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.2211258261467</v>
+        <v>31.266034</v>
       </c>
       <c r="N12">
-        <v>31.2211258261467</v>
+        <v>93.798102</v>
       </c>
       <c r="O12">
-        <v>0.1049865250189242</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P12">
-        <v>0.1049865250189242</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q12">
-        <v>4972.484740135971</v>
+        <v>4175.485105130067</v>
       </c>
       <c r="R12">
-        <v>4972.484740135971</v>
+        <v>37579.3659461706</v>
       </c>
       <c r="S12">
-        <v>0.02278267085002721</v>
+        <v>0.01600029892982548</v>
       </c>
       <c r="T12">
-        <v>0.02278267085002721</v>
+        <v>0.01600029892982548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.266669876833</v>
+        <v>133.547002</v>
       </c>
       <c r="H13">
-        <v>159.266669876833</v>
+        <v>400.6410059999999</v>
       </c>
       <c r="I13">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="J13">
-        <v>0.2170056666407481</v>
+        <v>0.1712801503882116</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.401301195466</v>
+        <v>234.189438</v>
       </c>
       <c r="N13">
-        <v>225.401301195466</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O13">
-        <v>0.7579515062662449</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P13">
-        <v>0.7579515062662449</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q13">
-        <v>35898.91462730688</v>
+        <v>31275.29734496488</v>
       </c>
       <c r="R13">
-        <v>35898.91462730688</v>
+        <v>281477.6761046839</v>
       </c>
       <c r="S13">
-        <v>0.1644797718986656</v>
+        <v>0.1198457410430703</v>
       </c>
       <c r="T13">
-        <v>0.1644797718986656</v>
+        <v>0.1198457410430703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.4401737341479</v>
+        <v>159.8684793333333</v>
       </c>
       <c r="H14">
-        <v>71.4401737341479</v>
+        <v>479.605438</v>
       </c>
       <c r="I14">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="J14">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>40.7597924634021</v>
+        <v>0.169425</v>
       </c>
       <c r="N14">
-        <v>40.7597924634021</v>
+        <v>0.508275</v>
       </c>
       <c r="O14">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P14">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q14">
-        <v>2911.886654953259</v>
+        <v>27.08571711105001</v>
       </c>
       <c r="R14">
-        <v>2911.886654953259</v>
+        <v>243.77145399945</v>
       </c>
       <c r="S14">
-        <v>0.01334153017643505</v>
+        <v>0.0001037914301198278</v>
       </c>
       <c r="T14">
-        <v>0.01334153017643505</v>
+        <v>0.0001037914301198278</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.4401737341479</v>
+        <v>159.8684793333333</v>
       </c>
       <c r="H15">
-        <v>71.4401737341479</v>
+        <v>479.605438</v>
       </c>
       <c r="I15">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="J15">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.2211258261467</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N15">
-        <v>31.2211258261467</v>
+        <v>207.216113</v>
       </c>
       <c r="O15">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P15">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q15">
-        <v>2230.442653195612</v>
+        <v>11042.44162622472</v>
       </c>
       <c r="R15">
-        <v>2230.442653195612</v>
+        <v>99381.9746360225</v>
       </c>
       <c r="S15">
-        <v>0.01021932564366754</v>
+        <v>0.04231421319589165</v>
       </c>
       <c r="T15">
-        <v>0.01021932564366754</v>
+        <v>0.04231421319589166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.4401737341479</v>
+        <v>159.8684793333333</v>
       </c>
       <c r="H16">
-        <v>71.4401737341479</v>
+        <v>479.605438</v>
       </c>
       <c r="I16">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="J16">
-        <v>0.09733940276454972</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.401301195466</v>
+        <v>31.266034</v>
       </c>
       <c r="N16">
-        <v>225.401301195466</v>
+        <v>93.798102</v>
       </c>
       <c r="O16">
-        <v>0.7579515062662449</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P16">
-        <v>0.7579515062662449</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q16">
-        <v>16102.70811730709</v>
+        <v>4998.453310364298</v>
       </c>
       <c r="R16">
-        <v>16102.70811730709</v>
+        <v>44986.07979327868</v>
       </c>
       <c r="S16">
-        <v>0.07377854694444715</v>
+        <v>0.01915388155841912</v>
       </c>
       <c r="T16">
-        <v>0.07377854694444715</v>
+        <v>0.01915388155841912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>121.113876562712</v>
+        <v>159.8684793333333</v>
       </c>
       <c r="H17">
-        <v>121.113876562712</v>
+        <v>479.605438</v>
       </c>
       <c r="I17">
-        <v>0.1650213289651989</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="J17">
-        <v>0.1650213289651989</v>
+        <v>0.2050386513547345</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.7597924634021</v>
+        <v>234.189438</v>
       </c>
       <c r="N17">
-        <v>40.7597924634021</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O17">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P17">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q17">
-        <v>4936.576473134241</v>
+        <v>37439.50932898795</v>
       </c>
       <c r="R17">
-        <v>4936.576473134241</v>
+        <v>336955.5839608916</v>
       </c>
       <c r="S17">
-        <v>0.02261814822790792</v>
+        <v>0.1434667651703039</v>
       </c>
       <c r="T17">
-        <v>0.02261814822790792</v>
+        <v>0.1434667651703039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>121.113876562712</v>
+        <v>75.93050033333333</v>
       </c>
       <c r="H18">
-        <v>121.113876562712</v>
+        <v>227.791501</v>
       </c>
       <c r="I18">
-        <v>0.1650213289651989</v>
+        <v>0.09738434649506758</v>
       </c>
       <c r="J18">
-        <v>0.1650213289651989</v>
+        <v>0.09738434649506759</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>31.2211258261467</v>
+        <v>0.169425</v>
       </c>
       <c r="N18">
-        <v>31.2211258261467</v>
+        <v>0.508275</v>
       </c>
       <c r="O18">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P18">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q18">
-        <v>3781.311579456831</v>
+        <v>12.864525018975</v>
       </c>
       <c r="R18">
-        <v>3781.311579456831</v>
+        <v>115.780725170775</v>
       </c>
       <c r="S18">
-        <v>0.01732501588206097</v>
+        <v>4.929636693971801E-05</v>
       </c>
       <c r="T18">
-        <v>0.01732501588206097</v>
+        <v>4.929636693971801E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>75.93050033333333</v>
+      </c>
+      <c r="H19">
+        <v>227.791501</v>
+      </c>
+      <c r="I19">
+        <v>0.09738434649506758</v>
+      </c>
+      <c r="J19">
+        <v>0.09738434649506759</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>69.07203766666666</v>
+      </c>
+      <c r="N19">
+        <v>207.216113</v>
+      </c>
+      <c r="O19">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="P19">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="Q19">
+        <v>5244.674379072845</v>
+      </c>
+      <c r="R19">
+        <v>47202.0694116556</v>
+      </c>
+      <c r="S19">
+        <v>0.02009739125920037</v>
+      </c>
+      <c r="T19">
+        <v>0.02009739125920038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>75.93050033333333</v>
+      </c>
+      <c r="H20">
+        <v>227.791501</v>
+      </c>
+      <c r="I20">
+        <v>0.09738434649506758</v>
+      </c>
+      <c r="J20">
+        <v>0.09738434649506759</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.266034</v>
+      </c>
+      <c r="N20">
+        <v>93.798102</v>
+      </c>
+      <c r="O20">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="P20">
+        <v>0.09341595563502442</v>
+      </c>
+      <c r="Q20">
+        <v>2374.045605059011</v>
+      </c>
+      <c r="R20">
+        <v>21366.4104455311</v>
+      </c>
+      <c r="S20">
+        <v>0.009097251791729077</v>
+      </c>
+      <c r="T20">
+        <v>0.009097251791729081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>75.93050033333333</v>
+      </c>
+      <c r="H21">
+        <v>227.791501</v>
+      </c>
+      <c r="I21">
+        <v>0.09738434649506758</v>
+      </c>
+      <c r="J21">
+        <v>0.09738434649506759</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>234.189438</v>
+      </c>
+      <c r="N21">
+        <v>702.5683140000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="P21">
+        <v>0.6997059540842085</v>
+      </c>
+      <c r="Q21">
+        <v>17782.12120012215</v>
+      </c>
+      <c r="R21">
+        <v>160039.0908010993</v>
+      </c>
+      <c r="S21">
+        <v>0.0681404070771984</v>
+      </c>
+      <c r="T21">
+        <v>0.06814040707719843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>132.9968926666667</v>
+      </c>
+      <c r="H22">
+        <v>398.990678</v>
+      </c>
+      <c r="I22">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="J22">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.169425</v>
+      </c>
+      <c r="N22">
+        <v>0.508275</v>
+      </c>
+      <c r="O22">
+        <v>0.0005062042177611658</v>
+      </c>
+      <c r="P22">
+        <v>0.0005062042177611658</v>
+      </c>
+      <c r="Q22">
+        <v>22.53299854005</v>
+      </c>
+      <c r="R22">
+        <v>202.79698686045</v>
+      </c>
+      <c r="S22">
+        <v>8.634558700333108E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.634558700333108E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>132.9968926666667</v>
+      </c>
+      <c r="H23">
+        <v>398.990678</v>
+      </c>
+      <c r="I23">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="J23">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.07203766666666</v>
+      </c>
+      <c r="N23">
+        <v>207.216113</v>
+      </c>
+      <c r="O23">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="P23">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="Q23">
+        <v>9186.366379821622</v>
+      </c>
+      <c r="R23">
+        <v>82677.29741839461</v>
+      </c>
+      <c r="S23">
+        <v>0.03520180397134146</v>
+      </c>
+      <c r="T23">
+        <v>0.03520180397134146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>132.9968926666667</v>
+      </c>
+      <c r="H24">
+        <v>398.990678</v>
+      </c>
+      <c r="I24">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="J24">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.266034</v>
+      </c>
+      <c r="N24">
+        <v>93.798102</v>
+      </c>
+      <c r="O24">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="P24">
+        <v>0.09341595563502442</v>
+      </c>
+      <c r="Q24">
+        <v>4158.285368010351</v>
+      </c>
+      <c r="R24">
+        <v>37424.56831209316</v>
+      </c>
+      <c r="S24">
+        <v>0.01593439019622905</v>
+      </c>
+      <c r="T24">
+        <v>0.01593439019622905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>121.113876562712</v>
-      </c>
-      <c r="H19">
-        <v>121.113876562712</v>
-      </c>
-      <c r="I19">
-        <v>0.1650213289651989</v>
-      </c>
-      <c r="J19">
-        <v>0.1650213289651989</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>225.401301195466</v>
-      </c>
-      <c r="N19">
-        <v>225.401301195466</v>
-      </c>
-      <c r="O19">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="P19">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="Q19">
-        <v>27299.22537006234</v>
-      </c>
-      <c r="R19">
-        <v>27299.22537006234</v>
-      </c>
-      <c r="S19">
-        <v>0.12507816485523</v>
-      </c>
-      <c r="T19">
-        <v>0.12507816485523</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>132.9968926666667</v>
+      </c>
+      <c r="H25">
+        <v>398.990678</v>
+      </c>
+      <c r="I25">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="J25">
+        <v>0.1705746099572606</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>234.189438</v>
+      </c>
+      <c r="N25">
+        <v>702.5683140000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="P25">
+        <v>0.6997059540842085</v>
+      </c>
+      <c r="Q25">
+        <v>31146.46754935299</v>
+      </c>
+      <c r="R25">
+        <v>280318.2079441769</v>
+      </c>
+      <c r="S25">
+        <v>0.1193520702026868</v>
+      </c>
+      <c r="T25">
+        <v>0.1193520702026868</v>
       </c>
     </row>
   </sheetData>
